--- a/data_uneditedRawFiles/Kyra extract/processed/cichlidae_montana_2009.xlsx
+++ b/data_uneditedRawFiles/Kyra extract/processed/cichlidae_montana_2009.xlsx
@@ -5,19 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\data_uneditedRawFiles\Kyra extract\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\data_uneditedRawFiles\Kyra extract\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC2BF26-BCCF-486A-8001-7FE6F6F93C46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C39363-591B-41E4-97E2-EDD593D8888E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -708,16 +716,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -881,7 +889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -958,7 +966,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1196,7 +1204,7 @@
         <v>10.36</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1389,7 +1397,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1487,7 +1495,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1552,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1635,7 +1643,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1748,7 +1756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1760,7 +1768,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
